--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1131707.197537205</v>
+        <v>1163869.856352057</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7019311.995309189</v>
+        <v>7054056.864709348</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.4513393960319</v>
+        <v>231.8901370945514</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>135.6972289535714</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>427.8084003977384</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>179.7546455140786</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>163.6426739575648</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>342.2323582581473</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,10 +1291,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>135.2683048170609</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218096</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>136.1921297287219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.55329631630673</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>90.9796478308906</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>172.662300743691</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>179.086131146671</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>161.0503051193471</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2002,22 +2002,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>130.9394714210109</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>212.7767073753814</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>184.7284552769305</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>32.9806632713262</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>60.78001549303674</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,10 +2776,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01098805494638</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344169</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>231.9225098238357</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>158.5878795129357</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,16 +3430,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>130.5953288477701</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>221.1091630478552</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3661,16 +3661,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788412268</v>
       </c>
       <c r="F40" t="n">
-        <v>63.51633119327867</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3749,16 +3749,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>155.990244039393</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6228498914035</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>144.4937753855477</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329196</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3989,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>347.239275184041</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>35.3478058351353</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225709</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>858.7979845632751</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>824.6959157871024</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>792.826535001951</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381412</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1921.274083944542</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1516.418629355575</v>
       </c>
       <c r="X2" t="n">
-        <v>290.5013348776264</v>
+        <v>1501.31656997529</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.2556152176839</v>
+        <v>1093.030446274943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>961.5628497245362</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>355.3074402308999</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>182.7457287141248</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>196.7623387080738</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>614.9722204760349</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1074.456087656948</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1516.714890814592</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1936.384140040374</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716087</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2103.231844014084</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1857.352397592539</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1578.919396845644</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1291.963888716075</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1019.937484302366</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>774.5457296357788</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>547.126058949887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.733634654753</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>673.6560445172202</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.976302484966</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>767.414590968191</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>601.5365981697137</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>601.5365981697137</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>424.8295441314699</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>259.2382691572976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1131.794921203953</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1131.794921203953</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1131.794921203953</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5075,7 +5075,7 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
         <v>3506.385025774511</v>
@@ -5084,7 +5084,7 @@
         <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1033.649484784619</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>861.0877732678438</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>695.2097804693665</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>525.4517767201037</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>348.7447226818599</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>183.1534477076876</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713471</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170193</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
         <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1225.468103503606</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
@@ -5276,25 +5276,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2492.071939528658</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3472.251606098964</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4300.561480932361</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.644769302702</v>
@@ -5312,16 +5312,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5413,7 +5413,7 @@
         <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
         <v>837.3544329777442</v>
@@ -5428,7 +5428,7 @@
         <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,19 +5458,19 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.450585778171</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
         <v>1840.424181364463</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068554</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941593</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063464</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>865.177623206852</v>
+        <v>838.73395404594</v>
       </c>
       <c r="C19" t="n">
-        <v>865.177623206852</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D19" t="n">
-        <v>699.2996304083747</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E19" t="n">
-        <v>529.5416266591119</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>352.8345726208681</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466957</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2586.658357829124</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2340.778911407579</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2062.345910660684</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1775.390402531115</v>
       </c>
       <c r="W19" t="n">
-        <v>1529.807667278318</v>
+        <v>1503.363998117406</v>
       </c>
       <c r="X19" t="n">
-        <v>1284.415912611731</v>
+        <v>1257.972243450819</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.996241925839</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562605</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577832</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5938,22 +5938,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769891</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769891</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>163.6547953142511</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917136</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932363</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.387333437352</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.995578770765</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.575908084873</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060352</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>863.1668995435767</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702765</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.0206718702449</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C37" t="n">
-        <v>666.4589603534698</v>
+        <v>831.0115848906039</v>
       </c>
       <c r="D37" t="n">
-        <v>500.5809675549925</v>
+        <v>665.1335920921266</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8229638057298</v>
+        <v>665.1335920921266</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>488.4265380538828</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>322.8352630797105</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.650715941711</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.258961275124</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.839290589232</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1068.769857140659</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C40" t="n">
-        <v>896.2081456238833</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="D40" t="n">
-        <v>730.330152825406</v>
+        <v>645.8766848899148</v>
       </c>
       <c r="E40" t="n">
-        <v>560.5721490761432</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1488.008146545538</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1260.588475859646</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638995</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822418</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996863</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155158</v>
+        <v>944.829865684729</v>
       </c>
       <c r="F41" t="n">
-        <v>700.8370285643657</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>299.4391971876296</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710024</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583062</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900079</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833905</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244939</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.11715482425</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123903</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074548</v>
+        <v>947.2320137580462</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>774.6703022412711</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>608.7923094427938</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429399</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731319</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309774</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.51926256288</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678921</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295531</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478954</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1598.671837653399</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1164.897092811694</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>737.0296632209015</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7655,19 +7655,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
@@ -7676,22 +7676,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780437</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F46" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7831,25 +7831,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>370.791200374083</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265365</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.5985112554903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>52.9498562502225</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136649</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9863699957347</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>90.22000922290042</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2.696804292444985e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>95.57977453680613</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>26.70948359397238</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.52943299418997</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>90.92021546249518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.0797604404439</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>26.99333424003468</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>44.28436272291242</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>37.38363054573572</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5.631333357556819</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.90782371875909</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>48.19697732171622</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>107.2592358276474</v>
       </c>
       <c r="F40" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>89.61600311981243</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307362</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>50.14457787892766</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.866554855693</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>593615.4188616847</v>
+        <v>601136.5362369164</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>593615.4188616847</v>
+        <v>606086.9209193521</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>593615.4188616847</v>
+        <v>606086.9209193521</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>603673.4924396867</v>
+        <v>620394.8292427701</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620394.8292427701</v>
+        <v>620394.8292427703</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620394.8292427702</v>
+        <v>620394.8292427701</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>611994.9397707416</v>
+        <v>595273.6029676578</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595273.6029676581</v>
+        <v>595273.6029676578</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="E2" t="n">
         <v>353866.7285801735</v>
@@ -26326,7 +26326,7 @@
         <v>353866.7285801735</v>
       </c>
       <c r="G2" t="n">
-        <v>358860.1322740096</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
@@ -26347,13 +26347,13 @@
         <v>368800.3088961467</v>
       </c>
       <c r="N2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>363806.9052023108</v>
+        <v>353866.7285801734</v>
       </c>
       <c r="P2" t="n">
-        <v>353866.7285801736</v>
+        <v>353866.7285801735</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>173781.1624182689</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701636</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>67079.99695088297</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="P4" t="n">
-        <v>65247.1922185665</v>
+        <v>65247.19221856655</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26141.79112016183</v>
+        <v>-58166.88595963892</v>
       </c>
       <c r="C6" t="n">
-        <v>116049.509539548</v>
+        <v>113263.9231713953</v>
       </c>
       <c r="D6" t="n">
-        <v>116049.5095395481</v>
+        <v>144453.9581088546</v>
       </c>
       <c r="E6" t="n">
-        <v>-19254.82793807791</v>
+        <v>53288.56031904823</v>
       </c>
       <c r="F6" t="n">
-        <v>215100.1940839594</v>
+        <v>215023.6355291626</v>
       </c>
       <c r="G6" t="n">
-        <v>211439.6828739007</v>
+        <v>204129.6196994739</v>
       </c>
       <c r="H6" t="n">
-        <v>210678.617021058</v>
+        <v>223058.1476616388</v>
       </c>
       <c r="I6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616387</v>
       </c>
       <c r="J6" t="n">
-        <v>112066.9066560311</v>
+        <v>73666.55123596379</v>
       </c>
       <c r="K6" t="n">
-        <v>223081.3720010214</v>
+        <v>198211.2108777052</v>
       </c>
       <c r="L6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616387</v>
       </c>
       <c r="M6" t="n">
-        <v>27480.19271795364</v>
+        <v>88068.20304863525</v>
       </c>
       <c r="N6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616388</v>
       </c>
       <c r="O6" t="n">
-        <v>220412.6721682298</v>
+        <v>215023.6355291625</v>
       </c>
       <c r="P6" t="n">
-        <v>215100.1940839596</v>
+        <v>215023.6355291626</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.5852353840268</v>
+        <v>190.1464376855073</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>28.52198391692113</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>89.55149485549273</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>267.9080130197351</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.234847749468315</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>370.791200374083</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265365</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36522,19 +36522,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
